--- a/AnalogClock activity config.xlsx
+++ b/AnalogClock activity config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AnalogClockTimeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF4D625-4F62-4EAD-8F1D-1E159EE292B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AACB6D-6508-4580-B0AA-E718A40EA271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,6 +293,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF808080"/>
+      <color rgb="FFD9D9D9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>

--- a/AnalogClock activity config.xlsx
+++ b/AnalogClock activity config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AnalogClockTimeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AACB6D-6508-4580-B0AA-E718A40EA271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0573D-81A2-4425-A99E-354288AF796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Button ID</t>
     <phoneticPr fontId="2"/>
@@ -65,13 +65,6 @@
   </si>
   <si>
     <t>メル・ココ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -133,6 +126,62 @@
   </si>
   <si>
     <t>Btn_009</t>
+  </si>
+  <si>
+    <t>仕事-段取り</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事-Delegate</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事-Call</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事-作業</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事-思考</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Btn_010</t>
+  </si>
+  <si>
+    <t>Btn_011</t>
+  </si>
+  <si>
+    <t>Btn_012</t>
+  </si>
+  <si>
+    <t>Btn_013</t>
   </si>
 </sst>
 </file>
@@ -168,7 +217,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,19 +268,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF663300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000099"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +358,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -295,6 +380,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF000099"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FF663300"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF808080"/>
       <color rgb="FFD9D9D9"/>
     </mruColors>
@@ -627,13 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57624C22-0333-41EB-A72E-D82F2DE6B244}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -654,16 +747,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -672,7 +765,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -681,57 +774,93 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/AnalogClock activity config.xlsx
+++ b/AnalogClock activity config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AnalogClockTimeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0573D-81A2-4425-A99E-354288AF796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AACB6D-6508-4580-B0AA-E718A40EA271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Button ID</t>
     <phoneticPr fontId="2"/>
@@ -65,6 +65,13 @@
   </si>
   <si>
     <t>メル・ココ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -126,62 +133,6 @@
   </si>
   <si>
     <t>Btn_009</t>
-  </si>
-  <si>
-    <t>仕事-段取り</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ダンド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事-Delegate</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事-Call</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事-作業</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事-思考</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Btn_010</t>
-  </si>
-  <si>
-    <t>Btn_011</t>
-  </si>
-  <si>
-    <t>Btn_012</t>
-  </si>
-  <si>
-    <t>Btn_013</t>
   </si>
 </sst>
 </file>
@@ -217,7 +168,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,43 +219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF663300"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000099"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,18 +285,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,14 +295,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000099"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFF66"/>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FFCC9900"/>
-      <color rgb="FF663300"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FF808080"/>
       <color rgb="FFD9D9D9"/>
     </mruColors>
@@ -720,13 +627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57624C22-0333-41EB-A72E-D82F2DE6B244}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -747,16 +654,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -765,7 +672,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -774,93 +681,57 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
